--- a/data/trans_dic/P55$auxiliar-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Edad-trans_dic.xlsx
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02612103724330476</v>
+        <v>0.02646890792828115</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0293465467092097</v>
+        <v>0.04021622707934085</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0889714529701504</v>
+        <v>0.09208887432573709</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.00753429796291185</v>
+        <v>0.007546250855740513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02669739696484247</v>
+        <v>0.03306297470190446</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008438415311818059</v>
+        <v>0.00847739669263017</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07412742607761734</v>
+        <v>0.07240494178733776</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09362621936671059</v>
+        <v>0.1025334556832552</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.159856312581058</v>
+        <v>0.1406831532725217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1647270342760107</v>
+        <v>0.1541480372884036</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1264845935459313</v>
+        <v>0.1299284511773267</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09650618234995209</v>
+        <v>0.0832535876061183</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.168005344599737</v>
+        <v>0.1785995525113926</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1148509357289873</v>
+        <v>0.1145623404877086</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2075960028718745</v>
+        <v>0.2117319216898303</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06592474791571883</v>
+        <v>0.06614440729999674</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1244264094360368</v>
+        <v>0.1237597234058834</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.0880138383449727</v>
+        <v>0.08564114337523106</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1546420264914223</v>
+        <v>0.1538948244526321</v>
       </c>
     </row>
     <row r="7">
@@ -845,37 +845,37 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.05032679941920933</v>
+        <v>0.04313286909956651</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01829583904713366</v>
+        <v>0.01818978587574416</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1796974774854483</v>
+        <v>0.1772938048413183</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02085423769794739</v>
+        <v>0.02061100409761161</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1626835492647711</v>
+        <v>0.1590871258026672</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04593082486095329</v>
+        <v>0.04440832577131056</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2365543478513856</v>
+        <v>0.2326482645199482</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0134192276632072</v>
+        <v>0.01347315223390301</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1401240582974519</v>
+        <v>0.1396151862820779</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0450891461377065</v>
+        <v>0.04409365146424388</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.231049765757118</v>
+        <v>0.2316700227354482</v>
       </c>
     </row>
     <row r="9">
@@ -887,37 +887,37 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.1670626897168642</v>
+        <v>0.1714842665797013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1076565892124428</v>
+        <v>0.1082156320200951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3083168202750922</v>
+        <v>0.3153510933894362</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09662151130152122</v>
+        <v>0.09958450343368723</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2835275610109267</v>
+        <v>0.2776498797751123</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1348813637756963</v>
+        <v>0.1319554978774889</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3132074013296549</v>
+        <v>0.3136203919210539</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06146298033418391</v>
+        <v>0.05840043058871268</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2257846811773503</v>
+        <v>0.2256615191615878</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1087889568084718</v>
+        <v>0.1093565789871778</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.304142447643396</v>
+        <v>0.2988762228530044</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.06565127743669241</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2431065017285929</v>
+        <v>0.243106501728593</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.02932022657278614</v>
@@ -979,37 +979,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04332457320948793</v>
+        <v>0.04381812348180521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02095926584904622</v>
+        <v>0.020006872367545</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.136087446431692</v>
+        <v>0.1302821596602174</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01910310463556389</v>
+        <v>0.01991670491842906</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1447247939660779</v>
+        <v>0.141046188633938</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03716803134611572</v>
+        <v>0.03705637376115754</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.210921982752649</v>
+        <v>0.2118736230973851</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01468680890088219</v>
+        <v>0.01307648163711771</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1160705975750892</v>
+        <v>0.1177630973217805</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0370567464625828</v>
+        <v>0.03809458874525237</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.197067673563111</v>
+        <v>0.1980521916810823</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03017721710530534</v>
+        <v>0.03369926276941276</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1384186635564052</v>
+        <v>0.1358598957965791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09311811710643372</v>
+        <v>0.0963499990972659</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2353682027443594</v>
+        <v>0.2331980904991981</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07822511526908539</v>
+        <v>0.0737946686753128</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2383135323022577</v>
+        <v>0.2379631019614067</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.103373137835541</v>
+        <v>0.1081007504671799</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2797732381955032</v>
+        <v>0.2794386144205389</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0509392718522156</v>
+        <v>0.05094618404394512</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1860733383515584</v>
+        <v>0.190059709729097</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09261951122288357</v>
+        <v>0.09156691168983618</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2528345012014759</v>
+        <v>0.2521834645006395</v>
       </c>
     </row>
     <row r="13">
@@ -1331,31 +1331,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1438</v>
+        <v>1457</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2046</v>
+        <v>2804</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7164</v>
+        <v>7415</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3075</v>
+        <v>3808</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10050</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="7">
@@ -1366,40 +1366,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>3912</v>
+        <v>4284</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7266</v>
+        <v>6395</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5162</v>
+        <v>4831</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6964</v>
+        <v>7154</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>6530</v>
+        <v>5633</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>11713</v>
+        <v>12451</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9434</v>
+        <v>9410</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16715</v>
+        <v>17048</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7215</v>
+        <v>7239</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>14331</v>
+        <v>14254</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>9988</v>
+        <v>9718</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>20966</v>
+        <v>20865</v>
       </c>
     </row>
     <row r="8">
@@ -1503,37 +1503,37 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>5069</v>
+        <v>4344</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1649</v>
+        <v>1639</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>20496</v>
+        <v>20222</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3405</v>
+        <v>3365</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>34133</v>
+        <v>33379</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8507</v>
+        <v>8225</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>65460</v>
+        <v>64379</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3329</v>
+        <v>3342</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>43512</v>
+        <v>43354</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12415</v>
+        <v>12141</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>90290</v>
+        <v>90532</v>
       </c>
     </row>
     <row r="11">
@@ -1545,37 +1545,37 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>16825</v>
+        <v>17271</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9702</v>
+        <v>9753</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35166</v>
+        <v>35969</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15775</v>
+        <v>16258</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>59488</v>
+        <v>58255</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>24983</v>
+        <v>24441</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>86672</v>
+        <v>86786</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15246</v>
+        <v>14487</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>70112</v>
+        <v>70074</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>29954</v>
+        <v>30111</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>118853</v>
+        <v>116795</v>
       </c>
     </row>
     <row r="12">
@@ -1681,37 +1681,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6333</v>
+        <v>6405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2546</v>
+        <v>2430</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23015</v>
+        <v>22033</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4411</v>
+        <v>4599</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>40455</v>
+        <v>39427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9937</v>
+        <v>9908</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>75350</v>
+        <v>75690</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5251</v>
+        <v>4675</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49411</v>
+        <v>50132</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>14408</v>
+        <v>14812</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>103729</v>
+        <v>104247</v>
       </c>
     </row>
     <row r="15">
@@ -1722,40 +1722,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>3820</v>
+        <v>4266</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20232</v>
+        <v>19858</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11310</v>
+        <v>11702</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>39806</v>
+        <v>39439</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>18064</v>
+        <v>17041</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>66616</v>
+        <v>66518</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>27638</v>
+        <v>28902</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>99946</v>
+        <v>99827</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18211</v>
+        <v>18213</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>79211</v>
+        <v>80908</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>36012</v>
+        <v>35603</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>133082</v>
+        <v>132740</v>
       </c>
     </row>
     <row r="16">
